--- a/InputFiles/CCDI/TC08_CCDI_DataValidation_phs002504.xlsx
+++ b/InputFiles/CCDI/TC08_CCDI_DataValidation_phs002504.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\qa-data-validation\InputFiles\CCDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D43B59F-CB71-423F-B00A-8BF887C7EBF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5D8BAF-BFE5-4AA3-8103-4689C49F4372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -364,6 +364,44 @@
 ORDER BY file_name </t>
   </si>
   <si>
+    <t xml:space="preserve">MATCH (s:study)&lt;--(p:participant)
+WHERE p.participant_id IN ['InptVlue']
+WITH DISTINCT p, s
+RETURN
+coalesce(p.participant_id, '') AS `Participant ID`,
+coalesce(s.phs_accession, '') AS `Study ID`,
+coalesce(p.sex_at_birth, '') AS `Sex` ,
+coalesce(p.race, '') AS `Race`,
+coalesce(p.ethnicity, '') AS `Ethnicity` ,
+coalesce(p.alternate_participant_id, '') AS `Alternate ID`
+Order by p.participant_id </t>
+  </si>
+  <si>
+    <t>TC08_CCDI_DataValidation_phs002504-InptVlue_Neo4jData.xlsx</t>
+  </si>
+  <si>
+    <t>TC08_CCDI_DataValidation_phs002504-InptVlue_ExData.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Match (s:study)&lt;--(p:participant)&lt;--(d:diagnosis)
+where p.participant_id IN ['InptVlue']
+OPTIONAL MATCH(fo:follow_up)--&gt;(p)
+with distinct d, p, s, fo
+return
+coalesce(p.participant_id, '') as `Participant ID`,
+coalesce(s.phs_accession, '') as `Study ID`,
+coalesce(d.diagnosis_classification, '') as `Diagnosis`,
+coalesce(d.diagnosis_classification_system, '') as `Diagnosis Classification System`,
+coalesce(d.diagnosis_verification_status, '') as `Diagnosis Verification Status`,
+coalesce(d.diagnosis_basis, '') as `Diagnosis Basis`,
+coalesce(d.diagnosis_comment, '') as `Diagnosis Comment`,
+coalesce(d.disease_phase, '') as `Disease Phase`,
+coalesce(d.anatomic_site, '') as `Anatomic Site`,
+coalesce(d.age_at_diagnosis, '') as `Age at diagnosis (days)`,
+coalesce(fo.vital_status, '') as `Vital Status`
+Order by p.participant_id </t>
+  </si>
+  <si>
     <t xml:space="preserve">CALL {
   MATCH (st:study)&lt;-[:of_participant|of_cell_line|of_pdx]-(pcp)&lt;-[:of_sample]-(sm:sample)
   WHERE (pcp:participant or pcp:cell_line or pcp:pdx) and pcp.participant_id IN ['InptVlue']
@@ -380,7 +418,7 @@
           participant_id as `Participant ID`,
           st.study_id as `Study ID`,
           sm.anatomic_site as `Anatomic Site`,
-          case sm.participant_age_at_collection when -999 then 'Not Reported' else coalesce(sm.participant_age_at_collection, '') end as `Age at Sample Collection`,
+          sm.participant_age_at_collection as `Age at Sample Collection`,
           coalesce(sm.diagnosis_classification, '') as `Diagnosis`,
           coalesce(sm.diagnosis_classification_system, '') as `Diagnosis Classification System`,
           coalesce(sm.diagnosis_verification_status, '') as `Diagnosis Verification Status`,
@@ -389,44 +427,6 @@
           sm.sample_tumor_status as `Sample Tumor Status`,
           sm.tumor_classification as `Sample Tumor Classification`
 Order by sm.sample_id </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATCH (s:study)&lt;--(p:participant)
-WHERE p.participant_id IN ['InptVlue']
-WITH DISTINCT p, s
-RETURN
-coalesce(p.participant_id, '') AS `Participant ID`,
-coalesce(s.phs_accession, '') AS `Study ID`,
-coalesce(p.sex_at_birth, '') AS `Sex` ,
-coalesce(p.race, '') AS `Race`,
-coalesce(p.ethnicity, '') AS `Ethnicity` ,
-coalesce(p.alternate_participant_id, '') AS `Alternate ID`
-Order by p.participant_id </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Match (s:study)&lt;--(p:participant)&lt;--(d:diagnosis)
-where p.participant_id IN ['InptVlue']
-OPTIONAL MATCH(fo:follow_up)--&gt;(p)
-with distinct d, p, s, fo
-return
-coalesce(p.participant_id, '') as `Participant ID`,
-coalesce(s.phs_accession, '') as `Study ID`,
-coalesce(d.diagnosis_classification, '') as `Diagnosis`,
-coalesce(d.diagnosis_classification_system, '') as `Diagnosis Classification System`,
-coalesce(d.diagnosis_verification_status, '') as `Diagnosis Verification Status`,
-coalesce(d.diagnosis_basis, '') as `Diagnosis Basis`,
-coalesce(d.diagnosis_comment, '') as `Diagnosis Comment`,
-coalesce(d.disease_phase, '') as `Disease Phase`,
-coalesce(d.anatomic_site, '') as `Anatomic Site`,
-case d.age_at_diagnosis when -999 then 'Not Reported' else coalesce(d.age_at_diagnosis, '') end as `Age at Diagnosis (days)`,
-coalesce(fo.vital_status, '') as `Vital Status`
-Order by p.participant_id </t>
-  </si>
-  <si>
-    <t>TC08_CCDI_DataValidation_phs002504-InptVlue_Neo4jData.xlsx</t>
-  </si>
-  <si>
-    <t>TC08_CCDI_DataValidation_phs002504-InptVlue_ExData.xlsx</t>
   </si>
 </sst>
 </file>
@@ -807,8 +807,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -838,27 +838,27 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="261" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
@@ -869,24 +869,24 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="377" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
@@ -897,10 +897,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
